--- a/Bike_DB_APM/AssemblyTable_20200623_170338.xlsx
+++ b/Bike_DB_APM/AssemblyTable_20200623_170338.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4079F7C9-9A70-49B1-BF76-2C6CF200FCFE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419F66AD-6FE8-4B31-81CE-6EC3B2FF61B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12990" yWindow="690" windowWidth="15750" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,7 +2716,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F79">
         <v>20</v>
@@ -2736,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="E80" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F80">
         <v>20</v>
@@ -2756,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F81">
         <v>20</v>
@@ -2776,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="E82" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F82">
         <v>20</v>
@@ -2796,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F83">
         <v>20</v>
@@ -2816,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F84">
         <v>30</v>
@@ -2836,7 +2836,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F85">
         <v>30</v>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F86">
         <v>30</v>
@@ -2876,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F87">
         <v>30</v>
@@ -2896,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F88">
         <v>30</v>
@@ -2916,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F89">
         <v>30</v>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F90">
         <v>30</v>
@@ -2956,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F91">
         <v>30</v>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F92">
         <v>30</v>
@@ -2996,7 +2996,7 @@
         <v>2</v>
       </c>
       <c r="E93" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F93">
         <v>30</v>
